--- a/2022/Symphony/Others/Emergency Format/New_Retail_Add_ERMS.xlsx
+++ b/2022/Symphony/Others/Emergency Format/New_Retail_Add_ERMS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Feb'22\ERMS update file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MC22\2022\Symphony\Others\Emergency Format\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="50">
   <si>
     <t>DealerID</t>
   </si>
@@ -93,31 +93,82 @@
     <t>bkash</t>
   </si>
   <si>
-    <t>Rajshahi</t>
-  </si>
-  <si>
     <t>ZSO-0025</t>
   </si>
   <si>
     <t>Semi-Urban</t>
   </si>
   <si>
-    <t>DEL-0031</t>
-  </si>
-  <si>
-    <t>DSR-0614</t>
-  </si>
-  <si>
-    <t>Maa-Babar Doya Telecom</t>
-  </si>
-  <si>
-    <t>Belpukur, Puthia, Rajshahi</t>
-  </si>
-  <si>
-    <t>Md. Shimul</t>
-  </si>
-  <si>
-    <t>Puthia</t>
+    <t>DEL-0179</t>
+  </si>
+  <si>
+    <t>Alhaz Telecom</t>
+  </si>
+  <si>
+    <t>Najirpur</t>
+  </si>
+  <si>
+    <t>Alhaz Hosen</t>
+  </si>
+  <si>
+    <t>Najirpur, Gurudaspur, Natore.</t>
+  </si>
+  <si>
+    <t>DSR-0248</t>
+  </si>
+  <si>
+    <t>Snigdha Mobile</t>
+  </si>
+  <si>
+    <t>Jonail</t>
+  </si>
+  <si>
+    <t>Md Sirajul Islam</t>
+  </si>
+  <si>
+    <t>Gurudaspur</t>
+  </si>
+  <si>
+    <t>Natore</t>
+  </si>
+  <si>
+    <t>Boraigram</t>
+  </si>
+  <si>
+    <t>Jonail , Boraigram, Natore.</t>
+  </si>
+  <si>
+    <t>DSR-0619</t>
+  </si>
+  <si>
+    <t>Rana Enterprise</t>
+  </si>
+  <si>
+    <t>Sailkona</t>
+  </si>
+  <si>
+    <t>Md Sohel Rana</t>
+  </si>
+  <si>
+    <t>Sailkona Bazar, Bagatipara, Natore.</t>
+  </si>
+  <si>
+    <t>Bagatipara</t>
+  </si>
+  <si>
+    <t>Nupur Store</t>
+  </si>
+  <si>
+    <t>Nur Alom</t>
+  </si>
+  <si>
+    <t>Hoibotpur</t>
+  </si>
+  <si>
+    <t>Natore Sadar</t>
+  </si>
+  <si>
+    <t>Hoibotpur, Natore Sodor, Natore.</t>
   </si>
 </sst>
 </file>
@@ -1002,7 +1053,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q24" sqref="Q24"/>
+      <selection pane="bottomRight" activeCell="D20" sqref="D19:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1094,19 +1145,19 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="5" t="s">
@@ -1116,19 +1167,19 @@
         <v>22</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J2" s="4">
-        <v>1790497065</v>
+        <v>1833581721</v>
       </c>
       <c r="K2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>30</v>
@@ -1137,86 +1188,200 @@
         <v>22</v>
       </c>
       <c r="P2" s="4">
-        <v>1790497065</v>
+        <v>1833581721</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>21</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S2" s="4" t="s">
         <v>23</v>
       </c>
       <c r="T2" s="4">
-        <v>1790497065</v>
+        <v>1833581721</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="A3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
+      <c r="G3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="4">
+        <v>1713743078</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" s="4">
+        <v>1713743078</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="T3" s="4">
+        <v>1713743078</v>
+      </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="A4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
+      <c r="G4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1717911377</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="4">
+        <v>1717911377</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="T4" s="4">
+        <v>1717911377</v>
+      </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="A5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
+      <c r="G5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="4">
+        <v>1713715975</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="P5" s="4">
+        <v>1713715975</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="T5" s="4">
+        <v>1713715975</v>
+      </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
@@ -1439,7 +1604,7 @@
       <c r="T15" s="4"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="P1 P4:P1048576">
+  <conditionalFormatting sqref="P1 P6:P1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2022/Symphony/Others/Emergency Format/New_Retail_Add_ERMS.xlsx
+++ b/2022/Symphony/Others/Emergency Format/New_Retail_Add_ERMS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>DealerID</t>
   </si>
@@ -81,9 +81,6 @@
     <t>TranMobNumber</t>
   </si>
   <si>
-    <t>GO</t>
-  </si>
-  <si>
     <t>Emerging</t>
   </si>
   <si>
@@ -102,73 +99,28 @@
     <t>DEL-0179</t>
   </si>
   <si>
-    <t>Alhaz Telecom</t>
-  </si>
-  <si>
-    <t>Najirpur</t>
-  </si>
-  <si>
-    <t>Alhaz Hosen</t>
-  </si>
-  <si>
     <t>Najirpur, Gurudaspur, Natore.</t>
   </si>
   <si>
     <t>DSR-0248</t>
   </si>
   <si>
-    <t>Snigdha Mobile</t>
-  </si>
-  <si>
-    <t>Jonail</t>
-  </si>
-  <si>
-    <t>Md Sirajul Islam</t>
-  </si>
-  <si>
     <t>Gurudaspur</t>
   </si>
   <si>
     <t>Natore</t>
   </si>
   <si>
-    <t>Boraigram</t>
-  </si>
-  <si>
-    <t>Jonail , Boraigram, Natore.</t>
-  </si>
-  <si>
-    <t>DSR-0619</t>
-  </si>
-  <si>
-    <t>Rana Enterprise</t>
-  </si>
-  <si>
-    <t>Sailkona</t>
-  </si>
-  <si>
-    <t>Md Sohel Rana</t>
-  </si>
-  <si>
-    <t>Sailkona Bazar, Bagatipara, Natore.</t>
-  </si>
-  <si>
-    <t>Bagatipara</t>
-  </si>
-  <si>
-    <t>Nupur Store</t>
-  </si>
-  <si>
-    <t>Nur Alom</t>
-  </si>
-  <si>
-    <t>Hoibotpur</t>
-  </si>
-  <si>
-    <t>Natore Sadar</t>
-  </si>
-  <si>
-    <t>Hoibotpur, Natore Sodor, Natore.</t>
+    <t>Rowshon Mobile</t>
+  </si>
+  <si>
+    <t>Masjid Market</t>
+  </si>
+  <si>
+    <t>Md Mojnu Ali</t>
+  </si>
+  <si>
+    <t>SIS</t>
   </si>
 </sst>
 </file>
@@ -1053,7 +1005,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D20" sqref="D19:D20"/>
+      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1145,243 +1097,129 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="E2" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="5" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="4">
+        <v>1743942010</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="4">
-        <v>1833581721</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="L2" s="4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P2" s="4">
         <v>1833581721</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T2" s="4">
         <v>1833581721</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="4">
-        <v>1713743078</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="P3" s="4">
-        <v>1713743078</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="T3" s="4">
-        <v>1713743078</v>
-      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>42</v>
-      </c>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" s="4">
-        <v>1717911377</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" s="4">
-        <v>1717911377</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="T4" s="4">
-        <v>1717911377</v>
-      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" s="4">
-        <v>1713715975</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="P5" s="4">
-        <v>1713715975</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="T5" s="4">
-        <v>1713715975</v>
-      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>

--- a/2022/Symphony/Others/Emergency Format/New_Retail_Add_ERMS.xlsx
+++ b/2022/Symphony/Others/Emergency Format/New_Retail_Add_ERMS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t>DealerID</t>
   </si>
@@ -99,28 +99,46 @@
     <t>DEL-0179</t>
   </si>
   <si>
-    <t>Najirpur, Gurudaspur, Natore.</t>
+    <t>Natore</t>
+  </si>
+  <si>
+    <t>Liton Telecom</t>
+  </si>
+  <si>
+    <t>Central Masjid Market</t>
+  </si>
+  <si>
+    <t>Md Sujon Hossain Liton</t>
+  </si>
+  <si>
+    <t>GO</t>
+  </si>
+  <si>
+    <t>Central Masjid Market, Natore Sadar, Natore</t>
+  </si>
+  <si>
+    <t>Natore Sadar</t>
+  </si>
+  <si>
+    <t>DSR-0246</t>
+  </si>
+  <si>
+    <t>Tech Point</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chaskoir </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Md Masud </t>
+  </si>
+  <si>
+    <t>Chaskoir, Gurudaspur, Natore</t>
+  </si>
+  <si>
+    <t>Gurudaspur</t>
   </si>
   <si>
     <t>DSR-0248</t>
-  </si>
-  <si>
-    <t>Gurudaspur</t>
-  </si>
-  <si>
-    <t>Natore</t>
-  </si>
-  <si>
-    <t>Rowshon Mobile</t>
-  </si>
-  <si>
-    <t>Masjid Market</t>
-  </si>
-  <si>
-    <t>Md Mojnu Ali</t>
-  </si>
-  <si>
-    <t>SIS</t>
   </si>
 </sst>
 </file>
@@ -1005,7 +1023,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1100,47 +1118,47 @@
         <v>25</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="D2" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="4">
+        <v>1715169432</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="J2" s="4">
-        <v>1743942010</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>23</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>21</v>
       </c>
       <c r="P2" s="4">
-        <v>1833581721</v>
+        <v>1715169432</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>20</v>
@@ -1152,30 +1170,66 @@
         <v>22</v>
       </c>
       <c r="T2" s="4">
-        <v>1833581721</v>
+        <v>1715169432</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="A3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="G3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="4">
+        <v>1713704714</v>
+      </c>
       <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
+      <c r="L3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="4">
+        <v>1713704714</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="T3" s="4">
+        <v>1713704714</v>
+      </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>

--- a/2022/Symphony/Others/Emergency Format/New_Retail_Add_ERMS.xlsx
+++ b/2022/Symphony/Others/Emergency Format/New_Retail_Add_ERMS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>DealerID</t>
   </si>
@@ -102,43 +102,25 @@
     <t>Natore</t>
   </si>
   <si>
-    <t>Liton Telecom</t>
-  </si>
-  <si>
-    <t>Central Masjid Market</t>
-  </si>
-  <si>
-    <t>Md Sujon Hossain Liton</t>
-  </si>
-  <si>
     <t>GO</t>
   </si>
   <si>
-    <t>Central Masjid Market, Natore Sadar, Natore</t>
-  </si>
-  <si>
-    <t>Natore Sadar</t>
-  </si>
-  <si>
     <t>DSR-0246</t>
   </si>
   <si>
-    <t>Tech Point</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chaskoir </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Md Masud </t>
-  </si>
-  <si>
     <t>Chaskoir, Gurudaspur, Natore</t>
   </si>
   <si>
     <t>Gurudaspur</t>
   </si>
   <si>
-    <t>DSR-0248</t>
+    <t>Siam Electronics Chaskoir</t>
+  </si>
+  <si>
+    <t>Chaskoir</t>
+  </si>
+  <si>
+    <t>Md Year Ali Pramanik</t>
   </si>
 </sst>
 </file>
@@ -1020,10 +1002,10 @@
   <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomRight" activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1118,47 +1100,47 @@
         <v>25</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J2" s="4">
-        <v>1715169432</v>
+        <v>1886866763</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>26</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>23</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>21</v>
       </c>
       <c r="P2" s="4">
-        <v>1715169432</v>
+        <v>1886866763</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>20</v>
@@ -1170,66 +1152,30 @@
         <v>22</v>
       </c>
       <c r="T2" s="4">
-        <v>1715169432</v>
+        <v>1886866763</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="4">
-        <v>1713704714</v>
-      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
       <c r="K3" s="4"/>
-      <c r="L3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="P3" s="4">
-        <v>1713704714</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="T3" s="4">
-        <v>1713704714</v>
-      </c>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
